--- a/src/main/resources/poi/report_warehouse_matierialItem.xlsx
+++ b/src/main/resources/poi/report_warehouse_matierialItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53E207-F1E8-43E7-BC74-A91006FF1944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8660453-FBEF-4A9B-8D39-13762009B11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
     <col min="15" max="19" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>

--- a/src/main/resources/poi/report_warehouse_matierialItem.xlsx
+++ b/src/main/resources/poi/report_warehouse_matierialItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8660453-FBEF-4A9B-8D39-13762009B11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0902A6-F87F-4E65-8EDA-499906716D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -259,6 +258,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +574,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -581,7 +583,7 @@
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="12" width="15.77734375" customWidth="1"/>
@@ -591,24 +593,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -617,31 +619,31 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -652,7 +654,7 @@
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -661,10 +663,10 @@
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
